--- a/biology/Botanique/Goyave/Goyave.xlsx
+++ b/biology/Botanique/Goyave/Goyave.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La goyave (prononcer go-yav ou gwa-yave) est le fruit tropical du goyavier, arbre de la famille des Myrtacées qui pousse dans les régions tropicales d'Amérique, dont les Antilles (Martinique, Guadeloupe, St-Martin...), d'Afrique et d'Asie. Son origine est mal connue[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La goyave (prononcer go-yav ou gwa-yave) est le fruit tropical du goyavier, arbre de la famille des Myrtacées qui pousse dans les régions tropicales d'Amérique, dont les Antilles (Martinique, Guadeloupe, St-Martin...), d'Afrique et d'Asie. Son origine est mal connue.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Origine et prononciation du mot goyave</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom espagnol guayaba a été emprunté au taino d'Hispaniola, alors que le nom français goyave et le nom portugais goiaba viendraient du mot arawak guaiaba, qui signifie « fruit ». En nahuati, la goyave s'appelait xalxocotl ou mombin sableux. En quechua la goyave était dénommée sahuinto[1].
-Le mot goyave a deux prononciations : dans les départements français d'Amérique, le mot est le plus souvent prononcé [gwajav] (« goi-yav »), se rapprochant du mot arawak guaiaba. Mais dans le reste de la francophonie, la prononciation standard est [gojav] (« go-yav »). C’était d’ailleurs souvent la seule donnée par les dictionnaires[2]. Cette différence de prononciation est l'objet d'un débat.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom espagnol guayaba a été emprunté au taino d'Hispaniola, alors que le nom français goyave et le nom portugais goiaba viendraient du mot arawak guaiaba, qui signifie « fruit ». En nahuati, la goyave s'appelait xalxocotl ou mombin sableux. En quechua la goyave était dénommée sahuinto.
+Le mot goyave a deux prononciations : dans les départements français d'Amérique, le mot est le plus souvent prononcé [gwajav] (« goi-yav »), se rapprochant du mot arawak guaiaba. Mais dans le reste de la francophonie, la prononciation standard est [gojav] (« go-yav »). C’était d’ailleurs souvent la seule donnée par les dictionnaires. Cette différence de prononciation est l'objet d'un débat.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Le fruit</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La goyave est un fruit tropical comestible originaire d'Amérique centrale, du Mexique au Pérou. C'est une baie globuleuse ronde, ovale ou en forme de poire, de 3 à 10 cm de diamètre (jusqu'à 12 cm dans certains cultivars).
-Le fruit a une peau fine et fragile, de couleur vert clair à jaune vif, piquetée de noir chez quelques espèces quand il est mûr. Sa chair est blanche, jaune, rose à rouge. Elle présente une zone extérieure assez ferme et sans graines et une zone intérieure gélifiée entourant de nombreuses graines dures de 3 à 5 mm de long. C'est un fruit climactérique dont le parfum est fort et caractéristique[1]. Sa chair a un goût qui ressemble a un mélange de poire et de fraise[3].
+Le fruit a une peau fine et fragile, de couleur vert clair à jaune vif, piquetée de noir chez quelques espèces quand il est mûr. Sa chair est blanche, jaune, rose à rouge. Elle présente une zone extérieure assez ferme et sans graines et une zone intérieure gélifiée entourant de nombreuses graines dures de 3 à 5 mm de long. C'est un fruit climactérique dont le parfum est fort et caractéristique. Sa chair a un goût qui ressemble a un mélange de poire et de fraise.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>L'arbre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le goyavier est un arbre de taille moyenne qui peut atteindre 8 mètres et qui pousse dans les régions tropicales d'Amérique et d'Afrique.
-Les feuilles peuvent être utilisées en cuisine et en médecine (thé de feuilles de goyavier). Le bois, assez dur, peut servir à fabriquer divers objets tels que des manches d'outils[1].
+Les feuilles peuvent être utilisées en cuisine et en médecine (thé de feuilles de goyavier). Le bois, assez dur, peut servir à fabriquer divers objets tels que des manches d'outils.
 </t>
         </is>
       </c>
@@ -607,10 +625,12 @@
           <t>Utilisation du fruit</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La goyave est riche en pectine, en vitamines A, B et C⁣ ; la goyave est plus riche en vitamine C que les agrumes habituels, la peau comestible en contenant près de cinq fois plus qu'une orange, soit en moyenne 243 mg par 100 g. Elle contient aussi des quantités importantes de calcium, ce qui est peu courant dans un fruit.
-Le fruit peut être consommé entier, mais la présence des graines sclérifiées est relativement désagréable. Par contre, il se prête très bien à la préparation de jus ou de nectar. Comme son parfum est très apprécié, on en fait également du jus, des sorbets, du sirop, de la confiture, de la pâte de fruit et de  la gelée qui est très appréciée dans les pâtisseries. Le jus de goyave peut être blanc, mais il est préféré en rose[1].
+Le fruit peut être consommé entier, mais la présence des graines sclérifiées est relativement désagréable. Par contre, il se prête très bien à la préparation de jus ou de nectar. Comme son parfum est très apprécié, on en fait également du jus, des sorbets, du sirop, de la confiture, de la pâte de fruit et de  la gelée qui est très appréciée dans les pâtisseries. Le jus de goyave peut être blanc, mais il est préféré en rose.
 Des cultivars à gros fruits sont souvent consommés immatures dans le sud de l'Asie. Ces variétés à chair blanche et à peau verte ont une texture croquante avec un goût acidulé et sont appréciées coupées en tranches accommodées de sel et de poivre.
 </t>
         </is>
@@ -640,7 +660,9 @@
           <t>Chiffres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les îles françaises ont produit entre 2010 et 2014 en moyenne annuellement environ 1 000 tonnes. Parmi ces 1 000 tonnes, 48 % provenait de l'Île de la Réunion, 26 % de la Martinique et 14 % de la Guadeloupe.
 </t>
